--- a/cbs1.0/20221101-空运包机/发布.xlsx
+++ b/cbs1.0/20221101-空运包机/发布.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>空白空运提单模版.pdf</t>
   </si>
@@ -25,6 +25,74 @@
   </si>
   <si>
     <t xml:space="preserve">   type = 50 的坐标数据导入</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">tl_air_mawb_preparation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -37,13 +105,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -188,6 +262,30 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFFFC66D"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF9876AA"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6897BB"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -498,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,34 +608,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,99 +644,105 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,13 +1093,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:F7"/>
+  <dimension ref="B4:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="4" spans="2:6">
       <c r="B4">
@@ -1017,6 +1118,11 @@
       </c>
       <c r="C7" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cbs1.0/20221101-空运包机/发布.xlsx
+++ b/cbs1.0/20221101-空运包机/发布.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12450"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>空白空运提单模版.pdf</t>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dl_base.base_menu bm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>parent_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">94 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">123 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">order by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bm.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">create_time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>desc</t>
+    </r>
   </si>
   <si>
-    <t>放templates目录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   type = 50 的坐标数据导入</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">select </t>
     </r>
     <r>
@@ -55,7 +198,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">tl_air_mawb_preparation </t>
+      <t xml:space="preserve">dl_base.base_auth_resource </t>
     </r>
     <r>
       <rPr>
@@ -73,7 +216,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>type</t>
+      <t xml:space="preserve">menu_id </t>
     </r>
     <r>
       <rPr>
@@ -82,7 +225,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>=</t>
+      <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
@@ -91,7 +234,7 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>50</t>
+      <t>123</t>
     </r>
   </si>
 </sst>
@@ -738,8 +881,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1093,36 +1239,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:F9"/>
+  <dimension ref="C9:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="4" spans="2:6">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="9" spans="3:3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
